--- a/Garantie.xlsx
+++ b/Garantie.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,12 +26,659 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="204">
+  <si>
+    <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
+  </si>
+  <si>
+    <t>Ligne</t>
+  </si>
+  <si>
+    <t>PSC - Demat Hospi Rejet privée</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT QUOTIDIEN/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR DEMAT QUOTIDIEN\</t>
+  </si>
+  <si>
+    <t>a_valider_partRC_indeterminable</t>
+  </si>
+  <si>
+    <t>dematempogarantie</t>
+  </si>
+  <si>
+    <t>aglaedematgarantie</t>
+  </si>
+  <si>
+    <t>1-Traitements</t>
+  </si>
+  <si>
+    <t>Suivi Prod Quotidien TRT.2021.v4</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_RC_INDETERMINABLE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC_INDETERMINABLE\</t>
+  </si>
+  <si>
+    <t>\04-POLE_GARANTIES-TP\00 - COMMUNICATION\01- Divers\00-SUIVI PROD\</t>
+  </si>
+  <si>
+    <t>\04-POLE_GARANTIES-TP\11-DEMAT CLASSIQUE&amp;TEMPO\02-PRODUCTION\3-AGLAE DEMAT\</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_AVIS D'ANNULATION\</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_AVIS D'ANNULATION/</t>
+  </si>
+  <si>
+    <t>\ALMERYS\</t>
+  </si>
+  <si>
+    <t>TRAME_ALMERYS_</t>
+  </si>
+  <si>
+    <t>\CBTP\</t>
+  </si>
+  <si>
+    <t>TRAME_CBTP_</t>
+  </si>
+  <si>
+    <t>\RETOUR_CONVENTION\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CONVENTION/</t>
+  </si>
+  <si>
+    <t>Saisie des conventions et mises à jour du</t>
+  </si>
+  <si>
+    <t>\RETOUR_MAJ_RIB_CBTP\</t>
+  </si>
+  <si>
+    <t>/RETOUR_MAJ_RIB_CBTP/</t>
+  </si>
+  <si>
+    <t>MAJ RIB CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR_TPMEP\</t>
+  </si>
+  <si>
+    <t>/RETOUR_TPMEP/</t>
+  </si>
+  <si>
+    <t>\RETOUR_NPAI\</t>
+  </si>
+  <si>
+    <t>/RETOUR_NPAI/</t>
+  </si>
+  <si>
+    <t>\RETOUR_MAJ_AGAPS_INTER_AMC\</t>
+  </si>
+  <si>
+    <t>/RETOUR_MAJ_AGAPS_INTER_AMC/</t>
+  </si>
+  <si>
+    <t>NPAI_P001_</t>
+  </si>
+  <si>
+    <t>mise à jour inter AMC</t>
+  </si>
+  <si>
+    <t>\RETOUR_MAJ_AGAPS_PS_EN_FE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_MAJ_AGAPS_PS_EN_FE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trame retour TPMEP </t>
+  </si>
+  <si>
+    <t>Remise en activité des PS</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDU_TIERS\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDU_TIERS/</t>
+  </si>
+  <si>
+    <t>Suivi_traitement_d'un indu_</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDU_HOSPI\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDU_HOSPI/</t>
+  </si>
+  <si>
+    <t>TRAME PRE-SAISIE INDU</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDUS_OPTIQUE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDUS_OPTIQUE/</t>
+  </si>
+  <si>
+    <t>Trame_de_suivi_d'indu_</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDUS_DENTAIRE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDUS_DENTAIRE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDUS_AUDIO\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDUS_AUDIO/</t>
+  </si>
+  <si>
+    <t>//10.128.1.2/bpo_almerys/</t>
+  </si>
+  <si>
+    <t>/04-POLE_GARANTIES-TP/11-DEMAT CLASSIQUE&amp;TEMPO/02-PRODUCTIO/3-AGLAE DEMAT/</t>
+  </si>
+  <si>
+    <t>/04-POLE_GARANTIES-TP/00 - COMMUNICATION/01- Divers/00-SUIVI PROD/</t>
+  </si>
+  <si>
+    <t>Trame</t>
+  </si>
+  <si>
+    <t>garantiedemat</t>
+  </si>
+  <si>
+    <t>garantiercindeterminable</t>
+  </si>
+  <si>
+    <t>garantieavisalmerys</t>
+  </si>
+  <si>
+    <t>garantieaviscbtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisie des conventions et mises à jour du </t>
+  </si>
+  <si>
+    <t>garantieconventionnement</t>
+  </si>
+  <si>
+    <t>garantieconvention</t>
+  </si>
+  <si>
+    <t>garantieconventioninfo</t>
+  </si>
+  <si>
+    <t>Trame retour TPMEP</t>
+  </si>
+  <si>
+    <t>garantieconventiontache</t>
+  </si>
+  <si>
+    <t>garantieribcbtp</t>
+  </si>
+  <si>
+    <t>garantietpmep</t>
+  </si>
+  <si>
+    <t>garantienpai</t>
+  </si>
+  <si>
+    <t>garantiemajagapsinteramc</t>
+  </si>
+  <si>
+    <t>garantiemajagapsremise</t>
+  </si>
+  <si>
+    <t>garantieribtpmep</t>
+  </si>
+  <si>
+    <t>garantieindustps</t>
+  </si>
+  <si>
+    <t>garantieindushospi</t>
+  </si>
+  <si>
+    <t>garantieindusoptique</t>
+  </si>
+  <si>
+    <t>garantieindusdentaire</t>
+  </si>
+  <si>
+    <t>garantieindusaudio</t>
+  </si>
+  <si>
+    <t>\RETOUR_RELEVE_DE_COMPTE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_RELEVE_DE_COMPTE/</t>
+  </si>
+  <si>
+    <t>Indu_Compta</t>
+  </si>
+  <si>
+    <t>garantieencinduscbtp</t>
+  </si>
+  <si>
+    <t>garantieencindusalmerys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMERYS du </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTP du </t>
+  </si>
+  <si>
+    <t>\RETOUR_INDU_SANS_NOTIFICATION\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDU_SANS_NOTIFICATION/</t>
+  </si>
+  <si>
+    <t>TRAITEMENT_INDU_SANS_NOTIFICTION</t>
+  </si>
+  <si>
+    <t>\RETOUR_INDUS_ENTRAIN\</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDUS_ENTRAIN/</t>
+  </si>
+  <si>
+    <t>INDUS_ENTRAIN</t>
+  </si>
+  <si>
+    <t>\RETOUR_CONTESTATION_CLIENT\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CONTESTATION_CLIENT/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contestation du </t>
+  </si>
+  <si>
+    <t>\RETOUR_CONTESTATION_INDU_PS\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CONTESTATION_INDU_PS/</t>
+  </si>
+  <si>
+    <t>CONTESTATION INDU PS_</t>
+  </si>
+  <si>
+    <t>garantieindussansnotif</t>
+  </si>
+  <si>
+    <t>garantieindusentrain_1</t>
+  </si>
+  <si>
+    <t>garantieindusentrain_2</t>
+  </si>
+  <si>
+    <t>garantieretourcontestclient</t>
+  </si>
+  <si>
+    <t>garantieretourcontestindus</t>
+  </si>
+  <si>
+    <t>\RETOUR_RECHERCHE FACTURE MACIF\</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE MACIF/</t>
+  </si>
+  <si>
+    <t>APIVIA</t>
+  </si>
+  <si>
+    <t>MMS</t>
+  </si>
+  <si>
+    <t>MPIB</t>
+  </si>
+  <si>
+    <t>\RETOUR_RECHERCHE FACTURE INTERIALE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/</t>
+  </si>
+  <si>
+    <t>INTERIALE</t>
+  </si>
+  <si>
+    <t>garantieretourrechercheapivia</t>
+  </si>
+  <si>
+    <t>garantieretourrecherchemms</t>
+  </si>
+  <si>
+    <t>garantieretourrechercheinteriale</t>
+  </si>
+  <si>
+    <t>garantieretourecherchempib</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC FORCE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_RC FORCE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction_RC_FORCE </t>
+  </si>
+  <si>
+    <t>garantiercforce</t>
+  </si>
+  <si>
+    <t>\RETOUR_FRAUDE\LMG\optique\</t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/LMG/optique/</t>
+  </si>
+  <si>
+    <t>Traitement Alertes_LMG_opt_rouge_</t>
+  </si>
+  <si>
+    <t>Traitement Alertes_LMG_opt_orange_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\RETOUR_FRAUDE\LMG\dentaire\ </t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/LMG/dentaire/</t>
+  </si>
+  <si>
+    <t>Traitement Alertes_LMG_Dent_</t>
+  </si>
+  <si>
+    <t>\RETOUR_FRAUDE\PEC refus\</t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/PEC refus/</t>
+  </si>
+  <si>
+    <t>Trame Suivi Réclamations PS suite PEC refusée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\RETOUR_FRAUDE\INTERIALE\PRE\TRAITEMENT\ </t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/INTERIALE/PRE/TRAITEMENT/</t>
+  </si>
+  <si>
+    <t>Alertes_prépaiement_</t>
+  </si>
+  <si>
+    <t>\RETOUR_FRAUDE\INTERIALE\AUDIO\TRAITEMENT\</t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/INTERIALE/AUDIO/TRAITEMENT/</t>
+  </si>
+  <si>
+    <t>Traitements alertes_prépaiement_</t>
+  </si>
+  <si>
+    <t>\RETOUR_FRAUDE\LMG\</t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/LMG/</t>
+  </si>
+  <si>
+    <t>optique A Date de traitement</t>
+  </si>
+  <si>
+    <t>\RETOUR_FRAUDE\INTERIALE\POST\REPRISE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/INTERIALE/POST/REPRISE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\RETOUR_FRAUDE\AMPLI\TRAITEMENT\ </t>
+  </si>
+  <si>
+    <t>/RETOUR_FRAUDE/AMPLI/TRAITEMENT/</t>
+  </si>
+  <si>
+    <t>Trame Suivi Réclamations PS suite PEC refusées</t>
+  </si>
+  <si>
+    <t>Alertes_post-paiement A Date de traitement</t>
+  </si>
+  <si>
+    <t>Alertes_prépaiement</t>
+  </si>
+  <si>
+    <t>garantiefraudepreplmgoptrouge</t>
+  </si>
+  <si>
+    <t>garantiefraudepreplmgoptorange</t>
+  </si>
+  <si>
+    <t>garantiefraudepreplmgdent</t>
+  </si>
+  <si>
+    <t>garantiefraudepostlmgoptorange</t>
+  </si>
+  <si>
+    <t>garantiefraudepostlmgoptrouge</t>
+  </si>
+  <si>
+    <t>garantiefraudepostlmgdent</t>
+  </si>
+  <si>
+    <t>garantiefraudereclapecrefus</t>
+  </si>
+  <si>
+    <t>garantiefraudeprepinterialerouge</t>
+  </si>
+  <si>
+    <t>garantiefraudeprepinterialeorange</t>
+  </si>
+  <si>
+    <t>garantiefraudeprepinteraudio</t>
+  </si>
+  <si>
+    <t>garantiefraudepostinteriale</t>
+  </si>
+  <si>
+    <t>garantiefraudepostinterialereprise</t>
+  </si>
+  <si>
+    <t>garantiefraudereclapecrefusinter</t>
+  </si>
+  <si>
+    <t>garantiefraudeprepamplirouge</t>
+  </si>
+  <si>
+    <t>garantiefraudereclasuitepecrefus</t>
+  </si>
+  <si>
+    <t>garantiefraudeprepampliorange</t>
+  </si>
+  <si>
+    <t>\RETOUR_CODELIS\Traitement Mail\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CODELIS/Traitement Mail/</t>
+  </si>
+  <si>
+    <t>Trame_traitement_codelis _mail_</t>
+  </si>
+  <si>
+    <t>\RETOUR_CODELIS\Traitement Appel\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CODELIS/Traitement Appel/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trame_traitement_codelis _Appel_JJMMAAAA
+A Date de traitement
+</t>
+  </si>
+  <si>
+    <t>\RETOUR_CODELIS\Traitement FTP\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CODELIS/Traitement FTP/</t>
+  </si>
+  <si>
+    <t>analyse résiliation</t>
+  </si>
+  <si>
+    <t>\RETOUR_TT_CHEQUES\</t>
+  </si>
+  <si>
+    <t>/RETOUR_TT_CHEQUES/</t>
+  </si>
+  <si>
+    <t>garantiecodelismail</t>
+  </si>
+  <si>
+    <t>garantiecodelisappel</t>
+  </si>
+  <si>
+    <t>garantiecodelisftp</t>
+  </si>
+  <si>
+    <t>garantieitcheques</t>
+  </si>
+  <si>
+    <t>trame_excel_remise_de_cheques_op_saisies_</t>
+  </si>
+  <si>
+    <t>/04-POLE_GARANTIES-TP/02- ARNO (Régime Obligatoire)/01-CONSIGNES/04 - ARNO_AGLAE CREATION 408 INTERIALE/Outils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suivi AGLAE_Création 408 Intériale </t>
+  </si>
+  <si>
+    <t>garantiearnoaglae</t>
+  </si>
+  <si>
+    <t>\RETOUR_ARNO\SAISIE CAISSE RO\</t>
+  </si>
+  <si>
+    <t>/RETOUR_ARNO/SAISIE CAISSE RO/</t>
+  </si>
+  <si>
+    <t>Tableau de bord Traiter une facture noémie</t>
+  </si>
+  <si>
+    <t>/RETOUR_ARNO/SUIVI DES DATES COMPTABLES/</t>
+  </si>
+  <si>
+    <t>\RETOUR_ARNO\SUIVI DES DATES COMPTABLES\SCINOE - SUIVI DATE COMPTABLE Semaine \</t>
+  </si>
+  <si>
+    <t>garantiearnosaisiecaissero</t>
+  </si>
+  <si>
+    <t>garantiearnosuivicomptables</t>
+  </si>
+  <si>
+    <t>garantiearnoreporting408</t>
+  </si>
+  <si>
+    <t>\04-POLE_GARANTIES-TP\02- ARNO (Régime Obligatoire)\01-CONSIGNES\04 - ARNO_AGLAE CREATION 408 INTERIALE\Outils\</t>
+  </si>
+  <si>
+    <t>\RETOUR_DEFRAIEMENT\</t>
+  </si>
+  <si>
+    <t>/RETOUR_DEFRAIEMENT/</t>
+  </si>
+  <si>
+    <t>MASQUE SAISIE</t>
+  </si>
+  <si>
+    <t>okko</t>
+  </si>
+  <si>
+    <t>\RETOUR_CURE_THERMALE\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CURE_THERMALE/</t>
+  </si>
+  <si>
+    <t>CURE_THERMALE_</t>
+  </si>
+  <si>
+    <t>\RETOUR_CMUC\</t>
+  </si>
+  <si>
+    <t>/RETOUR_CMUC/</t>
+  </si>
+  <si>
+    <t>garantieretourdefr</t>
+  </si>
+  <si>
+    <t>garantieretourcurethermale</t>
+  </si>
+  <si>
+    <t>garantieretourrecharchiv</t>
+  </si>
+  <si>
+    <t>garantieretourcmuc</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE ARCHIVE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_RECHERCHE ARCHIVE\</t>
+  </si>
+  <si>
+    <t>No Facture</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +701,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +995,2141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" t="s">
+        <v>190</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>187</v>
+      </c>
+      <c r="J55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="\\10.128.1.2\bpo_almerys\"/>
+    <hyperlink ref="A2" r:id="rId2" display="\\10.128.1.2\bpo_almerys\"/>
+    <hyperlink ref="A3" r:id="rId3" display="\\10.128.1.2\bpo_almerys\"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Garantie.xlsx
+++ b/Garantie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="205">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>a_valider_partRC_indeterminable</t>
-  </si>
-  <si>
-    <t>dematempogarantie</t>
-  </si>
-  <si>
-    <t>aglaedematgarantie</t>
   </si>
   <si>
     <t>1-Traitements</t>
@@ -641,6 +635,15 @@
   </si>
   <si>
     <t>Etat fin de traitement</t>
+  </si>
+  <si>
+    <t>Operateur</t>
+  </si>
+  <si>
+    <t>garantiedemattempo</t>
+  </si>
+  <si>
+    <t>garantiedemataglae</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1001,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,16 +1024,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>202</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1050,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1062,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -1082,34 +1085,34 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1126,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1152,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1164,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1173,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1196,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1205,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1216,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1228,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1237,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1269,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1292,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1301,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1321,22 +1324,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1344,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1356,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1365,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1376,31 +1379,31 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1449,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1484,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -1493,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
         <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1513,22 +1516,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
         <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1545,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
         <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1577,22 +1580,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1600,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1609,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1632,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1644,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
@@ -1653,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
         <v>77</v>
       </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1667,20 +1670,20 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="G21" t="s">
         <v>1</v>
       </c>
@@ -1688,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1714,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -1723,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
         <v>84</v>
-      </c>
-      <c r="J22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1746,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
@@ -1755,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
         <v>87</v>
-      </c>
-      <c r="J23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1778,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -1787,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
         <v>87</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1810,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
         <v>1</v>
@@ -1819,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
         <v>90</v>
-      </c>
-      <c r="J25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1830,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1842,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
         <v>1</v>
@@ -1851,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
         <v>93</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1874,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
         <v>1</v>
@@ -1883,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
         <v>101</v>
-      </c>
-      <c r="J27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1894,31 +1897,31 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
         <v>1</v>
@@ -1947,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1970,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
         <v>1</v>
@@ -1979,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" t="s">
         <v>106</v>
-      </c>
-      <c r="J30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,20 +1993,20 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" t="s">
         <v>1</v>
       </c>
@@ -2011,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" t="s">
         <v>113</v>
-      </c>
-      <c r="J31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -2034,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
@@ -2043,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" t="s">
         <v>117</v>
-      </c>
-      <c r="J32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,31 +2057,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -2098,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
         <v>1</v>
@@ -2107,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" t="s">
         <v>121</v>
-      </c>
-      <c r="J34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2118,31 +2121,31 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -2162,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
         <v>1</v>
@@ -2171,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" t="s">
         <v>117</v>
-      </c>
-      <c r="J36" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2182,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2194,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
         <v>1</v>
@@ -2203,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
         <v>121</v>
-      </c>
-      <c r="J37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2223,22 +2226,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" t="s">
         <v>124</v>
-      </c>
-      <c r="J38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2246,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -2258,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
         <v>1</v>
@@ -2267,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" t="s">
         <v>127</v>
-      </c>
-      <c r="J39" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2290,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
         <v>1</v>
@@ -2299,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" t="s">
         <v>127</v>
-      </c>
-      <c r="J40" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2322,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2331,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" t="s">
         <v>130</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2342,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2354,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>1</v>
@@ -2363,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -2386,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
@@ -2395,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2406,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -2415,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -2450,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
         <v>1</v>
@@ -2459,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -2482,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
         <v>1</v>
@@ -2491,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -2511,22 +2514,22 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -2543,22 +2546,22 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" t="s">
         <v>159</v>
-      </c>
-      <c r="J48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2575,22 +2578,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" t="s">
+        <v>160</v>
+      </c>
+      <c r="J49" t="s">
         <v>162</v>
-      </c>
-      <c r="J49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2598,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -2607,22 +2610,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" t="s">
         <v>165</v>
-      </c>
-      <c r="J50" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2630,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -2642,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
         <v>1</v>
@@ -2651,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2662,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2674,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
         <v>1</v>
@@ -2683,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" t="s">
         <v>178</v>
-      </c>
-      <c r="J52" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2706,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G53" t="s">
         <v>1</v>
@@ -2715,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G54" t="s">
         <v>1</v>
@@ -2744,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
+        <v>176</v>
+      </c>
+      <c r="J54" t="s">
         <v>178</v>
-      </c>
-      <c r="J54" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,31 +2758,31 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>188</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" t="s">
         <v>187</v>
-      </c>
-      <c r="J55" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -2799,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
         <v>1</v>
@@ -2808,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" t="s">
         <v>191</v>
-      </c>
-      <c r="J56" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -2828,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -2860,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G58" t="s">
         <v>1</v>
@@ -2869,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2883,8 +2886,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,11 +2900,11 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -2921,18 +2924,18 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2944,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -2953,31 +2956,31 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
@@ -2985,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3022,34 +3025,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -3066,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -3123,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
